--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC755EF5-1085-4247-96B2-997177387AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD5738-4E54-4EF0-AFFB-638A3F011110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00,000"/>
+    <numFmt numFmtId="164" formatCode="00,000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -113,6 +113,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="00,000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -151,7 +152,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="00,000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -498,7 +498,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -795,10 +794,507 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Comprimento (cm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28126628246917956"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83C4-4DCD-BC7E-327D35308C45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="485918576"/>
+        <c:axId val="485919560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485918576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Mesas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485919560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485919560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Comprimento</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485918576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -862,7 +1358,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1437,14 +2476,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1471,17 +2510,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5EEB92-A017-4638-99C7-B5C16C589C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A3:D28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A3:D28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:D28" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="0">
       <calculatedColumnFormula>B4*C4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1788,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +2900,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="2">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D28" si="0">B4*C4</f>
         <v>11175</v>
       </c>
     </row>
@@ -1840,7 +2915,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="2">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
     </row>
@@ -1855,7 +2930,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="2">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>11025</v>
       </c>
     </row>
@@ -1870,7 +2945,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="2">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
     </row>
@@ -1885,7 +2960,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="2">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
     </row>
@@ -1900,7 +2975,7 @@
         <v>149</v>
       </c>
       <c r="D9" s="2">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
     </row>
@@ -1915,7 +2990,7 @@
         <v>149.5</v>
       </c>
       <c r="D10" s="2">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>11212.5</v>
       </c>
     </row>
@@ -1930,7 +3005,7 @@
         <v>149.6</v>
       </c>
       <c r="D11" s="2">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
     </row>
@@ -1945,7 +3020,7 @@
         <v>149.69999999999999</v>
       </c>
       <c r="D12" s="2">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>11197.56</v>
       </c>
     </row>
@@ -1960,7 +3035,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="2">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>11145.199999999999</v>
       </c>
     </row>
@@ -1975,7 +3050,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="2">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
     </row>
@@ -1990,7 +3065,7 @@
         <v>150</v>
       </c>
       <c r="D15" s="2">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
     </row>
@@ -2005,7 +3080,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="2">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
     </row>
@@ -2020,7 +3095,7 @@
         <v>150</v>
       </c>
       <c r="D17" s="2">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>11205</v>
       </c>
     </row>
@@ -2035,7 +3110,7 @@
         <v>149</v>
       </c>
       <c r="D18" s="2">
-        <f>B18*C18</f>
+        <f t="shared" si="0"/>
         <v>11160.1</v>
       </c>
     </row>
@@ -2050,7 +3125,7 @@
         <v>149.6</v>
       </c>
       <c r="D19" s="2">
-        <f>B19*C19</f>
+        <f t="shared" si="0"/>
         <v>11220</v>
       </c>
     </row>
@@ -2065,7 +3140,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D20" s="2">
-        <f>B20*C20</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>
@@ -2080,7 +3155,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D21" s="2">
-        <f>B21*C21</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>
@@ -2095,7 +3170,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D22" s="2">
-        <f>B22*C22</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>
@@ -2110,7 +3185,7 @@
         <v>149.69999999999999</v>
       </c>
       <c r="D23" s="2">
-        <f>B23*C23</f>
+        <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
     </row>
@@ -2125,7 +3200,7 @@
         <v>149.69999999999999</v>
       </c>
       <c r="D24" s="2">
-        <f>B24*C24</f>
+        <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
     </row>
@@ -2140,7 +3215,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D25" s="2">
-        <f>B25*C25</f>
+        <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
     </row>
@@ -2155,7 +3230,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D26" s="2">
-        <f>B26*C26</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>
@@ -2170,7 +3245,7 @@
         <v>150</v>
       </c>
       <c r="D27" s="2">
-        <f>B27*C27</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
     </row>
@@ -2185,7 +3260,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D28" s="2">
-        <f>B28*C28</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD5738-4E54-4EF0-AFFB-638A3F011110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3B32D-DB1C-4EC2-BD28-5D25D6DC4F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
@@ -628,20 +628,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -740,7 +726,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1134,20 +1120,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1318,6 +1290,544 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Área das Mesas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$4:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>00.000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11212.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11205.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11197.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11145.199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11160.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11227.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11227.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11205.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11235</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE17-4CED-B4D5-A78CF755E6C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="474711944"/>
+        <c:axId val="474710632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474711944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Mesas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474710632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474710632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Areas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="00.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474711944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1398,6 +1908,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2404,20 +2954,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2432,8 +3485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="28575"/>
-          <a:ext cx="4210050" cy="419100"/>
+          <a:off x="38100" y="200025"/>
+          <a:ext cx="4210050" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2541,6 +3594,105 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91EAB5-6779-43AB-A447-8C5CF5607D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="476250"/>
+          <a:ext cx="1666875" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1"/>
+            <a:t>Histogramas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2CEC2B-AF8F-433E-92CD-1F392E21F4F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2861,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
-  <dimension ref="A3:D29"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,6 +4027,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3B32D-DB1C-4EC2-BD28-5D25D6DC4F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE930CD-461F-46F7-B37B-0778BE1DF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
@@ -325,7 +325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$4:$A$28</c:f>
+              <c:f>Planilha1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -409,7 +409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$4:$C$28</c:f>
+              <c:f>Planilha1!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -732,37 +732,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -908,7 +877,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$28</c:f>
+              <c:f>Planilha1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1218,37 +1187,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1359,7 +1297,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$4:$A$28</c:f>
+              <c:f>Planilha1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1443,9 +1381,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$4:$D$28</c:f>
+              <c:f>Planilha1!$D$2:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>00.000</c:formatCode>
+                <c:formatCode>00,000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>11175</c:v>
@@ -1532,7 +1470,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1713,7 +1650,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="00.000" sourceLinked="1"/>
+        <c:numFmt formatCode="00,000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1756,37 +1693,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3461,23 +3367,95 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D07E4-BDFD-4CCE-9E25-9EDC5B4D9E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5EEB92-A017-4638-99C7-B5C16C589C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9B1CA3-544C-4220-B88F-D9738B10C784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91EAB5-6779-43AB-A447-8C5CF5607D6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,8 +3463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="200025"/>
-          <a:ext cx="4210050" cy="390525"/>
+          <a:off x="10410825" y="47624"/>
+          <a:ext cx="1228725" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3514,147 +3492,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
-            <a:t>Cálculos</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1" baseline="0"/>
-            <a:t> Mecânica Experimento 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D07E4-BDFD-4CCE-9E25-9EDC5B4D9E5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5EEB92-A017-4638-99C7-B5C16C589C19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91EAB5-6779-43AB-A447-8C5CF5607D6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9058275" y="476250"/>
-          <a:ext cx="1666875" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
             <a:t>Histogramas</a:t>
           </a:r>
         </a:p>
@@ -3664,16 +3502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3702,14 +3540,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A3:D28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A3:D28" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A1:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D26" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="0">
-      <calculatedColumnFormula>B4*C4</calculatedColumnFormula>
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4013,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,39 +3865,68 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D26" si="0">B2*C2</f>
+        <v>11175</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>11250</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>75</v>
       </c>
       <c r="C4" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D28" si="0">B4*C4</f>
-        <v>11175</v>
+        <f t="shared" si="0"/>
+        <v>11025</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>75</v>
@@ -4074,217 +3941,217 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>75</v>
       </c>
       <c r="C6" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>11025</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>75</v>
       </c>
       <c r="C7" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>11250</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>75</v>
       </c>
       <c r="C8" s="1">
-        <v>149</v>
+        <v>149.5</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>11175</v>
+        <v>11212.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>75</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>149</v>
+        <v>149.6</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>11175</v>
+        <v>11205.04</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="C10" s="1">
-        <v>149.5</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>11212.5</v>
+        <v>11197.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>74.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="C11" s="1">
-        <v>149.6</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>11205.04</v>
+        <v>11145.199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1">
-        <v>149.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>11197.56</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>74.8</v>
+        <v>74.5</v>
       </c>
       <c r="C13" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>11145.199999999999</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>75</v>
       </c>
       <c r="C14" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>11250</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>74.5</v>
+        <v>74.7</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>11175</v>
+        <v>11205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>75</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C16" s="1">
         <v>149</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>11175</v>
+        <v>11160.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1">
-        <v>150</v>
+        <v>149.6</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>11205</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>74.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1">
-        <v>149</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>11160.1</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>75</v>
       </c>
       <c r="C19" s="1">
-        <v>149.6</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>11220</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>75</v>
@@ -4299,82 +4166,82 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>75</v>
       </c>
       <c r="C21" s="1">
-        <v>149.80000000000001</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>11235</v>
+        <v>11227.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>75</v>
       </c>
       <c r="C22" s="1">
-        <v>149.80000000000001</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>11235</v>
+        <v>11227.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="C23" s="1">
-        <v>149.69999999999999</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>11227.5</v>
+        <v>11205.04</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>75</v>
       </c>
       <c r="C24" s="1">
-        <v>149.69999999999999</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>11227.5</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1">
-        <v>149.80000000000001</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>11205.04</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>75</v>
@@ -4383,36 +4250,6 @@
         <v>149.80000000000001</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>11235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1">
-        <v>150</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE930CD-461F-46F7-B37B-0778BE1DF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7833F9B-EAC1-48BF-942E-523861332894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Mesa</t>
   </si>
@@ -37,6 +38,36 @@
   </si>
   <si>
     <t>Área(cm²)</t>
+  </si>
+  <si>
+    <t>Grandezas</t>
+  </si>
+  <si>
+    <t>Médias</t>
+  </si>
+  <si>
+    <t>Largura (cm)</t>
+  </si>
+  <si>
+    <t>Comprimento (cm)</t>
+  </si>
+  <si>
+    <t>Área (cm²)</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro da média </t>
+  </si>
+  <si>
+    <t>Total de medidas</t>
+  </si>
+  <si>
+    <t>Raiz das medidas</t>
+  </si>
+  <si>
+    <t>Calculo da área(L media x C media):</t>
   </si>
 </sst>
 </file>
@@ -71,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,11 +110,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -91,11 +137,132 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00,000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1734,6 +1901,481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Largura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> X Comprimento</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Largura(cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A66-48AD-BD20-7012BA3F6000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479363112"/>
+        <c:axId val="479358520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479363112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479358520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479358520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479363112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1854,6 +2496,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3344,6 +4026,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3439,16 +4637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3463,7 +4661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10410825" y="47624"/>
+          <a:off x="10086975" y="28574"/>
           <a:ext cx="1228725" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3503,15 +4701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3536,17 +4734,136 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72273F2B-2ECE-436A-B938-9EF3C3DFE7B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1181101</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12037451-4A24-4090-B9BB-2ACCAF1AC9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019801" y="104775"/>
+          <a:ext cx="1219200" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Cálculos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A1:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A1:D26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D26" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="6">
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}" name="Tabela22" displayName="Tabela22" ref="A1:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D26" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Comprimento(cm) " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Largura(cm)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área(cm²)" dataDxfId="0">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3853,8 +5170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,4 +5585,492 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE712F-C8CB-45CD-89E8-DFE62483C883}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D26" si="0">B2*C2</f>
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>147</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>11025</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <f>AVERAGE(Tabela22[Largura(cm)])</f>
+        <v>149.50400000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <f>_xlfn.STDEV.P(Tabela22[Largura(cm)])</f>
+        <v>0.63022535651939704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>149</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <f>AVERAGE(Tabela22[Comprimento(cm) ])</f>
+        <v>74.935999999999993</v>
+      </c>
+      <c r="H6" s="3">
+        <f>_xlfn.STDEV.P(Tabela22[Comprimento(cm) ])</f>
+        <v>0.12289833196589778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <f>AVERAGE(Tabela22[Área(cm²)])</f>
+        <v>11203.2176</v>
+      </c>
+      <c r="H7" s="3">
+        <f>_xlfn.STDEV.S(Tabela22[Área(cm²)])</f>
+        <v>48.46035022572584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>11212.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C9" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>11205.04</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G5*G6</f>
+        <v>11203.231744000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>11197.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>11145.199999999999</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+      <c r="F12" s="3">
+        <f>G9/H12</f>
+        <v>2240.6463487999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SQRT(G12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>149</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>11205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C16" s="1">
+        <v>149</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>11160.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>11227.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>11227.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>11205.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7833F9B-EAC1-48BF-942E-523861332894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDDDB9-2262-45B1-B8E4-E057BB428762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gráficos" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Mesa</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Calculo da área(L media x C media):</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Área (cm²)</t>
+  </si>
+  <si>
+    <t>Erro da Área</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,7 +501,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$26</c:f>
+              <c:f>Gráficos!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -576,7 +585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$26</c:f>
+              <c:f>Gráficos!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1044,7 +1053,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$26</c:f>
+              <c:f>Gráficos!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1464,7 +1473,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$26</c:f>
+              <c:f>Gráficos!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1548,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$2:$D$26</c:f>
+              <c:f>Gráficos!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>00,000</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1986,7 +1995,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$1</c:f>
+              <c:f>Gráficos!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2019,7 +2028,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$26</c:f>
+              <c:f>Gráficos!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2103,7 +2112,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$26</c:f>
+              <c:f>Gráficos!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4637,16 +4646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4661,7 +4670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10086975" y="28574"/>
+          <a:off x="8286750" y="0"/>
           <a:ext cx="1228725" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4778,15 +4787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1181101</xdr:colOff>
+      <xdr:colOff>1657351</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4801,8 +4810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019801" y="104775"/>
-          <a:ext cx="1219200" cy="333376"/>
+          <a:off x="6496051" y="95250"/>
+          <a:ext cx="1352549" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4836,6 +4845,123 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE962AC2-BC82-4E6B-B29F-401804EE8C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972051" y="2571750"/>
+          <a:ext cx="2543174" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Propagação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0"/>
+            <a:t> de Erro da Área</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1273821</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929ED7BE-E71D-4E16-B59E-57DC40C43DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="18015" t="10035" r="20711" b="19089"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="2466976"/>
+          <a:ext cx="2950221" cy="542924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5170,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE712F-C8CB-45CD-89E8-DFE62483C883}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,7 +6041,7 @@
         <v>11160.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5930,7 +6056,7 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5944,8 +6070,15 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5">
+        <f>H7</f>
+        <v>48.46035022572584</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5959,8 +6092,15 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <f>G7</f>
+        <v>11203.2176</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5974,8 +6114,15 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SQRT((H5/G5)^2 + (H6/G6)^2)*G7</f>
+        <v>50.674830212554852</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5990,7 +6137,7 @@
         <v>11227.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6005,7 +6152,7 @@
         <v>11227.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6020,7 +6167,7 @@
         <v>11205.04</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6035,7 +6182,7 @@
         <v>11235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6050,7 +6197,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDDDB9-2262-45B1-B8E4-E057BB428762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31E09A-AA10-4F7A-BFDE-96E203F68007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
@@ -16,6 +16,13 @@
     <sheet name="Gráficos" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$D$2:$D$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Mesa</t>
   </si>
@@ -55,12 +62,6 @@
     <t>Área (cm²)</t>
   </si>
   <si>
-    <t>Desvio Padrão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro da média </t>
-  </si>
-  <si>
     <t>Total de medidas</t>
   </si>
   <si>
@@ -74,6 +75,18 @@
   </si>
   <si>
     <t>Erro da Área</t>
+  </si>
+  <si>
+    <t>Comprimento(cm)</t>
+  </si>
+  <si>
+    <t>Covariancia</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Amostral</t>
+  </si>
+  <si>
+    <t>Erro da média (Área)</t>
   </si>
 </sst>
 </file>
@@ -100,15 +113,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +168,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +198,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -194,7 +257,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -401,1516 +482,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Histograma Largura</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> (cm)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Gráficos!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gráficos!$C$2:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>149.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>149.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>149.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>149.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>149.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>149.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF19-4714-861C-6A2AC2F3B00F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="458380624"/>
-        <c:axId val="458381280"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="458380624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Mesas</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="458381280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="458381280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Largura</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="458380624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Histograma</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Comprimento (cm)</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28126628246917956"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Gráficos!$B$2:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>74.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83C4-4DCD-BC7E-327D35308C45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="485918576"/>
-        <c:axId val="485919560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="485918576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Mesas</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="485919560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="485919560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Comprimento</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="485918576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Área das Mesas</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Gráficos!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gráficos!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11025</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11212.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11205.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11197.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11145.199999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11160.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11220</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11235</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11235</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11235</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11227.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11227.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11205.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11235</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11235</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE17-4CED-B4D5-A78CF755E6C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="474711944"/>
-        <c:axId val="474710632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="474711944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Mesas</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="474710632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="474710632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="11300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Areas</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="00,000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="474711944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2385,6 +956,241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Histograma Largura (cm)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{673A2CAB-88D6-4F7D-AA21-D46E83A32EEB}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Histograma Comprimento (cm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A6489220-93A7-4664-AC06-89B6CAAF44DC}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histograma Área(cm²)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histograma Área(cm²)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{2BFDE132-43BF-4AFE-9C78-C3AD1D7AA09F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Área(cm²)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2546,6 +1352,514 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3048,8 +2362,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3076,8 +2390,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3178,7 +2492,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3210,10 +2524,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3247,6 +2561,531 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3317,12 +3156,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3354,8 +3187,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3410,7 +3243,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3438,7 +3271,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -3448,12 +3292,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3469,7 +3310,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3485,7 +3326,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3499,7 +3340,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3532,7 +3373,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3541,1031 +3382,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4580,32 +3396,74 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D07E4-BDFD-4CCE-9E25-9EDC5B4D9E5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D07E4-BDFD-4CCE-9E25-9EDC5B4D9E5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4362450" y="419100"/>
+              <a:ext cx="4225018" cy="2266950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4621,27 +3479,69 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5EEB92-A017-4638-99C7-B5C16C589C19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5EEB92-A017-4638-99C7-B5C16C589C19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8505825" y="414337"/>
+              <a:ext cx="4314825" cy="2281238"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4709,42 +3609,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2CEC2B-AF8F-433E-92CD-1F392E21F4F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -4773,10 +3637,88 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112258</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>398008</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C3DD07-F4DB-4A7D-96F7-B2DA8F5D56D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12932908" y="360590"/>
+              <a:ext cx="4552950" cy="2357664"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4786,16 +3728,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1657351</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1990726</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4810,8 +3752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496051" y="95250"/>
-          <a:ext cx="1352549" cy="333376"/>
+          <a:off x="6629401" y="85725"/>
+          <a:ext cx="1343024" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4849,13 +3791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
@@ -4917,14 +3859,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1273821</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1350021</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4987,10 +3929,10 @@
   <autoFilter ref="A1:D26" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Comprimento(cm) " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Largura(cm)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Largura(cm)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Comprimento(cm)" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área(cm²)" dataDxfId="0">
-      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+      <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5296,16 +4238,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,18 +4660,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE712F-C8CB-45CD-89E8-DFE62483C883}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5738,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5752,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>149</v>
+      </c>
+      <c r="C2" s="6">
         <v>75</v>
       </c>
-      <c r="C2" s="1">
-        <v>149</v>
-      </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D26" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D26" si="0">C2*B2</f>
         <v>11175</v>
       </c>
     </row>
@@ -5767,10 +4711,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>150</v>
+      </c>
+      <c r="C3" s="7">
         <v>75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>150</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
@@ -5782,23 +4726,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6">
         <v>75</v>
-      </c>
-      <c r="C4" s="1">
-        <v>147</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>11025</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5806,25 +4753,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>150</v>
+      </c>
+      <c r="C5" s="7">
         <v>75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>150</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="9">
         <f>AVERAGE(Tabela22[Largura(cm)])</f>
         <v>149.50400000000002</v>
       </c>
+      <c r="G5" s="9">
+        <f>_xlfn.STDEV.S(Tabela22[Largura(cm)])</f>
+        <v>0.64322106101505605</v>
+      </c>
       <c r="H5" s="3">
-        <f>_xlfn.STDEV.P(Tabela22[Largura(cm)])</f>
-        <v>0.63022535651939704</v>
+        <f>-_xlfn.COVARIANCE.S(Tabela22[Largura(cm)],Tabela22[Comprimento(cm)])</f>
+        <v>1.4733333333333291E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5832,25 +4783,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6">
         <v>75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>149</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3">
-        <f>AVERAGE(Tabela22[Comprimento(cm) ])</f>
+      <c r="F6" s="10">
+        <f>AVERAGE(Tabela22[Comprimento(cm)])</f>
         <v>74.935999999999993</v>
       </c>
-      <c r="H6" s="3">
-        <f>_xlfn.STDEV.P(Tabela22[Comprimento(cm) ])</f>
-        <v>0.12289833196589778</v>
+      <c r="G6" s="10">
+        <f>_xlfn.STDEV.S(Tabela22[Comprimento(cm)])</f>
+        <v>0.12543258481484523</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5858,23 +4809,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7">
         <v>75</v>
-      </c>
-      <c r="C7" s="1">
-        <v>149</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="F7" s="8">
         <f>AVERAGE(Tabela22[Área(cm²)])</f>
         <v>11203.2176</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G7" s="8">
         <f>_xlfn.STDEV.S(Tabela22[Área(cm²)])</f>
         <v>48.46035022572584</v>
       </c>
@@ -5884,10 +4835,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="C8" s="6">
         <v>75</v>
-      </c>
-      <c r="C8" s="1">
-        <v>149.5</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -5899,20 +4850,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="C9" s="7">
         <v>74.900000000000006</v>
-      </c>
-      <c r="C9" s="1">
-        <v>149.6</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3">
-        <f>G5*G6</f>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F5*F6</f>
         <v>11203.231744000001</v>
       </c>
     </row>
@@ -5921,10 +4872,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C10" s="6">
         <v>74.8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>149.69999999999999</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -5936,23 +4887,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>149</v>
+      </c>
+      <c r="C11" s="7">
         <v>74.8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>149</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>11145.199999999999</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5960,24 +4911,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
+        <v>150</v>
+      </c>
+      <c r="C12" s="6">
         <v>75</v>
-      </c>
-      <c r="C12" s="1">
-        <v>150</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E12" s="3">
+        <f>F9/G12</f>
+        <v>2240.6463487999999</v>
+      </c>
       <c r="F12" s="3">
-        <f>G9/H12</f>
-        <v>2240.6463487999999</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3">
-        <f>SQRT(G12)</f>
+        <f>SQRT(F12)</f>
         <v>5</v>
       </c>
     </row>
@@ -5986,10 +4937,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7">
         <v>74.5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>150</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
@@ -6001,10 +4952,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>149</v>
+      </c>
+      <c r="C14" s="6">
         <v>75</v>
-      </c>
-      <c r="C14" s="1">
-        <v>149</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
@@ -6016,10 +4967,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
+        <v>150</v>
+      </c>
+      <c r="C15" s="7">
         <v>74.7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>150</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
@@ -6031,181 +4982,181 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
+        <v>149</v>
+      </c>
+      <c r="C16" s="6">
         <v>74.900000000000006</v>
-      </c>
-      <c r="C16" s="1">
-        <v>149</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11160.1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="C17" s="7">
         <v>75</v>
-      </c>
-      <c r="C17" s="1">
-        <v>149.6</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>11220</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C18" s="6">
         <v>75</v>
-      </c>
-      <c r="C18" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5">
-        <f>H7</f>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5">
+        <f>G7</f>
         <v>48.46035022572584</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C19" s="7">
         <v>75</v>
-      </c>
-      <c r="C19" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="5">
-        <f>G7</f>
+      <c r="F19" s="5">
+        <f>F7</f>
         <v>11203.2176</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C20" s="6">
         <v>75</v>
-      </c>
-      <c r="C20" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5">
-        <f>SQRT((H5/G5)^2 + (H6/G6)^2)*G7</f>
-        <v>50.674830212554852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5">
+        <f>SQRT((G5/F5)^2 + (G6/F6)^2)*F7</f>
+        <v>51.719782009555075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C21" s="7">
         <v>75</v>
-      </c>
-      <c r="C21" s="1">
-        <v>149.69999999999999</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C22" s="6">
         <v>75</v>
-      </c>
-      <c r="C22" s="1">
-        <v>149.69999999999999</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C23" s="7">
         <v>74.8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C24" s="6">
         <v>75</v>
-      </c>
-      <c r="C24" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
+        <v>150</v>
+      </c>
+      <c r="C25" s="7">
         <v>75</v>
-      </c>
-      <c r="C25" s="1">
-        <v>150</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C26" s="6">
         <v>75</v>
-      </c>
-      <c r="C26" s="1">
-        <v>149.80000000000001</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31E09A-AA10-4F7A-BFDE-96E203F68007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D60DB3-5DDC-4A67-937A-BC564A0B82F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráficos" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$D$2:$D$26</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$B$2:$B$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Mesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprimento(cm) </t>
-  </si>
-  <si>
-    <t>Largura(cm)</t>
   </si>
   <si>
     <t>Área(cm²)</t>
@@ -77,9 +71,6 @@
     <t>Erro da Área</t>
   </si>
   <si>
-    <t>Comprimento(cm)</t>
-  </si>
-  <si>
     <t>Covariancia</t>
   </si>
   <si>
@@ -87,6 +78,18 @@
   </si>
   <si>
     <t>Erro da média (Área)</t>
+  </si>
+  <si>
+    <t>Comprimento</t>
+  </si>
+  <si>
+    <t>Largura</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largura </t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00,000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,11 +226,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -430,44 +480,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -566,11 +578,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráficos!$C$1</c:f>
+              <c:f>Gráficos!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Largura(cm)</c:v>
+                  <c:v>Comprimento</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,7 +611,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Gráficos!$C$2:$C$26</c:f>
+              <c:f>Gráficos!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -683,7 +695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gráficos!$B$2:$B$26</c:f>
+              <c:f>Gráficos!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -961,10 +973,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1054,7 +1066,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1129,7 +1141,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1167,8 +1179,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2BFDE132-43BF-4AFE-9C78-C3AD1D7AA09F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>Área(cm²)</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Área</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -3391,15 +3403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>200931</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3435,8 +3447,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4362450" y="419100"/>
-              <a:ext cx="4225018" cy="2266950"/>
+              <a:off x="4634592" y="3014436"/>
+              <a:ext cx="4244068" cy="2291897"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3468,16 +3480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199118</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>72798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3513,8 +3525,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8505825" y="414337"/>
-              <a:ext cx="4314825" cy="2281238"/>
+              <a:off x="4632779" y="481012"/>
+              <a:ext cx="4336596" cy="2308453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3546,13 +3558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
@@ -3609,16 +3621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527956</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3645,16 +3657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>112258</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>170090</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>398008</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137204</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>22679</xdr:rowOff>
+      <xdr:rowOff>102055</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3690,8 +3702,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12932908" y="360590"/>
-              <a:ext cx="4552950" cy="2357664"/>
+              <a:off x="9161008" y="442234"/>
+              <a:ext cx="4572000" cy="2381250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3914,10 +3926,10 @@
   <autoFilter ref="A1:D26" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Comprimento(cm) " dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4BA50CAF-CBD9-4E01-A1F8-EB12D5851A64}" name="Largura(cm)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área(cm²)" dataDxfId="6">
-      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{1C8305B1-FF20-4AD0-9F88-CC91765CCA84}" name="Comprimento" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Largura " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área" dataDxfId="8">
+      <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3925,13 +3937,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}" name="Tabela22" displayName="Tabela22" ref="A1:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}" name="Tabela22" displayName="Tabela22" ref="A1:D26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:D26" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Largura(cm)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Comprimento(cm)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área(cm²)" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Comprimento" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Largura" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área" dataDxfId="2">
       <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4238,17 +4250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,13 +4282,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1">
         <v>75</v>
       </c>
-      <c r="C2" s="1">
-        <v>149</v>
-      </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D26" si="0">B2*C2</f>
+        <f>C2*B2</f>
         <v>11175</v>
       </c>
     </row>
@@ -4285,13 +4297,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1">
         <v>75</v>
       </c>
-      <c r="C3" s="1">
-        <v>150</v>
-      </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
+        <f>C3*B3</f>
         <v>11250</v>
       </c>
     </row>
@@ -4300,13 +4312,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>147</v>
+      </c>
+      <c r="C4" s="1">
         <v>75</v>
       </c>
-      <c r="C4" s="1">
-        <v>147</v>
-      </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f>C4*B4</f>
         <v>11025</v>
       </c>
     </row>
@@ -4315,13 +4327,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1">
         <v>75</v>
       </c>
-      <c r="C5" s="1">
-        <v>150</v>
-      </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f>C5*B5</f>
         <v>11250</v>
       </c>
     </row>
@@ -4330,13 +4342,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1">
         <v>75</v>
       </c>
-      <c r="C6" s="1">
-        <v>149</v>
-      </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f>C6*B6</f>
         <v>11175</v>
       </c>
     </row>
@@ -4345,13 +4357,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1">
         <v>75</v>
       </c>
-      <c r="C7" s="1">
-        <v>149</v>
-      </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f>C7*B7</f>
         <v>11175</v>
       </c>
     </row>
@@ -4360,13 +4372,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="C8" s="1">
         <v>75</v>
       </c>
-      <c r="C8" s="1">
-        <v>149.5</v>
-      </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f>C8*B8</f>
         <v>11212.5</v>
       </c>
     </row>
@@ -4375,13 +4387,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="C9" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="C9" s="1">
-        <v>149.6</v>
-      </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f>C9*B9</f>
         <v>11205.04</v>
       </c>
     </row>
@@ -4390,13 +4402,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C10" s="1">
         <v>74.8</v>
       </c>
-      <c r="C10" s="1">
-        <v>149.69999999999999</v>
-      </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f>C10*B10</f>
         <v>11197.56</v>
       </c>
     </row>
@@ -4405,13 +4417,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1">
         <v>74.8</v>
       </c>
-      <c r="C11" s="1">
-        <v>149</v>
-      </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f>C11*B11</f>
         <v>11145.199999999999</v>
       </c>
     </row>
@@ -4420,13 +4432,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1">
         <v>75</v>
       </c>
-      <c r="C12" s="1">
-        <v>150</v>
-      </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f>C12*B12</f>
         <v>11250</v>
       </c>
     </row>
@@ -4435,13 +4447,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
         <v>74.5</v>
       </c>
-      <c r="C13" s="1">
-        <v>150</v>
-      </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f>C13*B13</f>
         <v>11175</v>
       </c>
     </row>
@@ -4450,13 +4462,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1">
         <v>75</v>
       </c>
-      <c r="C14" s="1">
-        <v>149</v>
-      </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f>C14*B14</f>
         <v>11175</v>
       </c>
     </row>
@@ -4465,13 +4477,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1">
         <v>74.7</v>
       </c>
-      <c r="C15" s="1">
-        <v>150</v>
-      </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f>C15*B15</f>
         <v>11205</v>
       </c>
     </row>
@@ -4480,13 +4492,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="C16" s="1">
-        <v>149</v>
-      </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f>C16*B16</f>
         <v>11160.1</v>
       </c>
     </row>
@@ -4495,13 +4507,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="C17" s="1">
         <v>75</v>
       </c>
-      <c r="C17" s="1">
-        <v>149.6</v>
-      </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f>C17*B17</f>
         <v>11220</v>
       </c>
     </row>
@@ -4510,13 +4522,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C18" s="1">
         <v>75</v>
       </c>
-      <c r="C18" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f>C18*B18</f>
         <v>11235</v>
       </c>
     </row>
@@ -4525,13 +4537,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C19" s="1">
         <v>75</v>
       </c>
-      <c r="C19" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f>C19*B19</f>
         <v>11235</v>
       </c>
     </row>
@@ -4540,13 +4552,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C20" s="1">
         <v>75</v>
       </c>
-      <c r="C20" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f>C20*B20</f>
         <v>11235</v>
       </c>
     </row>
@@ -4555,13 +4567,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C21" s="1">
         <v>75</v>
       </c>
-      <c r="C21" s="1">
-        <v>149.69999999999999</v>
-      </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f>C21*B21</f>
         <v>11227.5</v>
       </c>
     </row>
@@ -4570,13 +4582,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C22" s="1">
         <v>75</v>
       </c>
-      <c r="C22" s="1">
-        <v>149.69999999999999</v>
-      </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f>C22*B22</f>
         <v>11227.5</v>
       </c>
     </row>
@@ -4585,13 +4597,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C23" s="1">
         <v>74.8</v>
       </c>
-      <c r="C23" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f>C23*B23</f>
         <v>11205.04</v>
       </c>
     </row>
@@ -4600,13 +4612,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C24" s="1">
         <v>75</v>
       </c>
-      <c r="C24" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f>C24*B24</f>
         <v>11235</v>
       </c>
     </row>
@@ -4615,13 +4627,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1">
         <v>75</v>
       </c>
-      <c r="C25" s="1">
-        <v>150</v>
-      </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f>C25*B25</f>
         <v>11250</v>
       </c>
     </row>
@@ -4630,13 +4642,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C26" s="1">
         <v>75</v>
       </c>
-      <c r="C26" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f>C26*B26</f>
         <v>11235</v>
       </c>
     </row>
@@ -4660,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE712F-C8CB-45CD-89E8-DFE62483C883}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,14 +4694,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -4736,16 +4749,16 @@
         <v>11025</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4763,18 +4776,18 @@
         <v>11250</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9">
-        <f>AVERAGE(Tabela22[Largura(cm)])</f>
+        <f>AVERAGE(Tabela22[Comprimento])</f>
         <v>149.50400000000002</v>
       </c>
       <c r="G5" s="9">
-        <f>_xlfn.STDEV.S(Tabela22[Largura(cm)])</f>
+        <f>_xlfn.STDEV.S(Tabela22[Comprimento])</f>
         <v>0.64322106101505605</v>
       </c>
       <c r="H5" s="3">
-        <f>-_xlfn.COVARIANCE.S(Tabela22[Largura(cm)],Tabela22[Comprimento(cm)])</f>
+        <f>-_xlfn.COVARIANCE.S(Tabela22[Comprimento],Tabela22[Largura])</f>
         <v>1.4733333333333291E-2</v>
       </c>
     </row>
@@ -4793,14 +4806,14 @@
         <v>11175</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
-        <f>AVERAGE(Tabela22[Comprimento(cm)])</f>
+        <f>AVERAGE(Tabela22[Largura])</f>
         <v>74.935999999999993</v>
       </c>
       <c r="G6" s="10">
-        <f>_xlfn.STDEV.S(Tabela22[Comprimento(cm)])</f>
+        <f>_xlfn.STDEV.S(Tabela22[Largura])</f>
         <v>0.12543258481484523</v>
       </c>
     </row>
@@ -4819,14 +4832,14 @@
         <v>11175</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f>AVERAGE(Tabela22[Área(cm²)])</f>
+        <f>AVERAGE(Tabela22[Área])</f>
         <v>11203.2176</v>
       </c>
       <c r="G7" s="8">
-        <f>_xlfn.STDEV.S(Tabela22[Área(cm²)])</f>
+        <f>_xlfn.STDEV.S(Tabela22[Área])</f>
         <v>48.46035022572584</v>
       </c>
     </row>
@@ -4860,7 +4873,7 @@
         <v>11205.04</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <f>F5*F6</f>
@@ -4897,13 +4910,13 @@
         <v>11145.199999999999</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,7 +5035,7 @@
         <v>11235</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5">
         <f>G7</f>
@@ -5044,7 +5057,7 @@
         <v>11235</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <f>F7</f>
@@ -5066,7 +5079,7 @@
         <v>11235</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5">
         <f>SQRT((G5/F5)^2 + (G6/F6)^2)*F7</f>

--- a/PlanilhaMec.xlsx
+++ b/PlanilhaMec.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D60DB3-5DDC-4A67-937A-BC564A0B82F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA2D125-3BC9-406B-82E4-7B8397490232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{255CFAC6-715B-4C6B-AC80-5626B26B3EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráficos" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$D$2:$D$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Gráficos!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Gráficos!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Gráficos!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Gráficos!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Gráficos!$C$2:$C$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Mesa</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Erro da Área</t>
   </si>
   <si>
-    <t>Covariancia</t>
-  </si>
-  <si>
     <t>Desvio Padrão Amostral</t>
   </si>
   <si>
@@ -83,23 +80,57 @@
     <t>Comprimento</t>
   </si>
   <si>
-    <t>Largura</t>
-  </si>
-  <si>
     <t>Área</t>
   </si>
   <si>
     <t xml:space="preserve">Largura </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Covariancia(C x L)</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>Erro da média(Comprimento)</t>
+  </si>
+  <si>
+    <t>Erro da média(Largura)</t>
+  </si>
+  <si>
+    <t>Área Mesas da Turma</t>
+  </si>
+  <si>
+    <t>11,305,25</t>
+  </si>
+  <si>
+    <t>Média das Médias(Área)</t>
+  </si>
+  <si>
+    <t>Discrepancia</t>
+  </si>
+  <si>
+    <t>Erro da Área * 2</t>
+  </si>
+  <si>
+    <t>Situação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00,000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +146,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +178,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,11 +231,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,31 +280,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -420,7 +478,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="00,000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -973,10 +1088,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1058,6 +1173,13 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1066,7 +1188,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1133,6 +1255,13 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1141,7 +1270,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1179,7 +1308,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2BFDE132-43BF-4AFE-9C78-C3AD1D7AA09F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Área</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1200,6 +1329,13 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -3402,15 +3538,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200931</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100240</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609145</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>181428</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3447,8 +3583,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4634592" y="3014436"/>
-              <a:ext cx="4244068" cy="2291897"/>
+              <a:off x="6714670" y="2795814"/>
+              <a:ext cx="4301672" cy="2264683"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3480,16 +3616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>199118</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607333</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>72798</xdr:rowOff>
+      <xdr:rowOff>90715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11340</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:rowOff>68038</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3525,8 +3661,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4632779" y="481012"/>
-              <a:ext cx="4336596" cy="2308453"/>
+              <a:off x="6712858" y="500290"/>
+              <a:ext cx="4280807" cy="2263323"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3558,16 +3694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286657</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>34019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>296182</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>176895</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3582,8 +3718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="0"/>
-          <a:ext cx="1228725" cy="333376"/>
+          <a:off x="10208532" y="34019"/>
+          <a:ext cx="1234168" cy="335644"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3621,16 +3757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527956</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107724</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56697</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74386</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>181428</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3657,16 +3793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>463776</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90716</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>34020</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>137204</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>102055</xdr:rowOff>
+      <xdr:rowOff>68039</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3702,8 +3838,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9161008" y="442234"/>
-              <a:ext cx="4572000" cy="2381250"/>
+              <a:off x="11073041" y="477611"/>
+              <a:ext cx="4414610" cy="2286003"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3740,16 +3876,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1990726</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047876</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3764,7 +3900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629401" y="85725"/>
+          <a:off x="8877301" y="123825"/>
           <a:ext cx="1343024" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3803,16 +3939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742952</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3827,8 +3963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972051" y="2571750"/>
-          <a:ext cx="2543174" cy="333376"/>
+          <a:off x="7572377" y="3190875"/>
+          <a:ext cx="2247898" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3856,11 +3992,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
             <a:t>Propagação</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0"/>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0"/>
             <a:t> de Erro da Área</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1400" b="1"/>
@@ -3869,83 +4005,104 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1350021</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929ED7BE-E71D-4E16-B59E-57DC40C43DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFE2569-AF6C-4E4B-902D-87936E5C2728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="18015" t="10035" r="20711" b="19089"/>
-        <a:stretch/>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="2466976"/>
-          <a:ext cx="2950221" cy="542924"/>
+          <a:off x="11096625" y="3276600"/>
+          <a:ext cx="2419350" cy="333376"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Compatibilidade</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0"/>
+            <a:t> entre as medidas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A1:D26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D26" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1C8305B1-FF20-4AD0-9F88-CC91765CCA84}" name="Comprimento" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Largura " dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}" name="Tabela2" displayName="Tabela2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E26" xr:uid="{AF5E4E7F-7658-4C1F-988D-38E964DF83DE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4B7B588D-2180-4D9A-97EC-7C0442261E4F}" name="Mesa" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1C8305B1-FF20-4AD0-9F88-CC91765CCA84}" name="Comprimento" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{05BFC711-E78F-40BC-944A-F2446CFDCA92}" name="Largura " dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{2E8B38ED-96C8-49DC-B05E-3A4584396171}" name="Área" dataDxfId="8">
       <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="3" xr3:uid="{1F477CE9-3090-4398-ACC9-B31637D49D50}" name="Área Mesas da Turma" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}" name="Tabela22" displayName="Tabela22" ref="A1:D26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:D26" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="Comprimento" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="Largura" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}" name="Tabela22" displayName="Tabela22" ref="A1:E26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E26" xr:uid="{F1750D9D-9607-414E-9CC4-DB7EF2D5A2AA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C719A252-3CF0-42C4-9891-E56D6792B6DF}" name="Mesa" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3B523544-9789-480E-8B1F-A748D05FFEBD}" name="C" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{37948ADD-F344-4C00-B307-4C1DF03BCADC}" name="L" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{74BC4C81-F794-4BD0-85A2-C6B9DD0B5C1E}" name="Área" dataDxfId="1">
       <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{48E44B69-FB91-45BB-99C8-16B5510C709A}" name="Área Mesas da Turma" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4248,36 +4405,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8B7C0-8265-4FED-9DD6-2B21D30538D2}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4288,11 +4448,14 @@
         <v>75</v>
       </c>
       <c r="D2" s="2">
-        <f>C2*B2</f>
+        <f t="shared" ref="D2:D26" si="0">C2*B2</f>
         <v>11175</v>
       </c>
+      <c r="E2" s="1">
+        <v>11269.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4303,11 +4466,14 @@
         <v>75</v>
       </c>
       <c r="D3" s="2">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E3" s="1">
+        <v>11256.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4318,11 +4484,14 @@
         <v>75</v>
       </c>
       <c r="D4" s="2">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>11025</v>
       </c>
+      <c r="E4" s="1">
+        <v>11268.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4333,11 +4502,14 @@
         <v>75</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E5" s="1">
+        <v>11263.79</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4348,11 +4520,14 @@
         <v>75</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E6" s="1">
+        <v>11265.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4363,11 +4538,14 @@
         <v>75</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E7" s="1">
+        <v>11278.52</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4378,11 +4556,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="2">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>11212.5</v>
       </c>
+      <c r="E8" s="1">
+        <v>11279.71</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4393,11 +4574,14 @@
         <v>74.900000000000006</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
+      <c r="E9" s="1">
+        <v>11264.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4408,11 +4592,14 @@
         <v>74.8</v>
       </c>
       <c r="D10" s="2">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>11197.56</v>
       </c>
+      <c r="E10" s="1">
+        <v>11272.48</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4423,11 +4610,14 @@
         <v>74.8</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>11145.199999999999</v>
       </c>
+      <c r="E11" s="1">
+        <v>11290.83</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4438,11 +4628,14 @@
         <v>75</v>
       </c>
       <c r="D12" s="2">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E12" s="1">
+        <v>11203.23</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4453,11 +4646,14 @@
         <v>74.5</v>
       </c>
       <c r="D13" s="2">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E13" s="1">
+        <v>11267.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4468,11 +4664,14 @@
         <v>75</v>
       </c>
       <c r="D14" s="2">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4483,11 +4682,14 @@
         <v>74.7</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>11205</v>
       </c>
+      <c r="E15" s="1">
+        <v>11280.28</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4498,11 +4700,12 @@
         <v>74.900000000000006</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>11160.1</v>
       </c>
+      <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4513,11 +4716,12 @@
         <v>75</v>
       </c>
       <c r="D17" s="2">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>11220</v>
       </c>
+      <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4528,11 +4732,12 @@
         <v>75</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4543,11 +4748,12 @@
         <v>75</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4558,11 +4764,12 @@
         <v>75</v>
       </c>
       <c r="D20" s="2">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4573,11 +4780,12 @@
         <v>75</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
+      <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4588,11 +4796,12 @@
         <v>75</v>
       </c>
       <c r="D22" s="2">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
+      <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4603,11 +4812,12 @@
         <v>74.8</v>
       </c>
       <c r="D23" s="2">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
+      <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4618,11 +4828,12 @@
         <v>75</v>
       </c>
       <c r="D24" s="2">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4633,11 +4844,12 @@
         <v>75</v>
       </c>
       <c r="D25" s="2">
-        <f>C25*B25</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4648,11 +4860,12 @@
         <v>75</v>
       </c>
       <c r="D26" s="2">
-        <f>C26*B26</f>
+        <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E26" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4670,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE712F-C8CB-45CD-89E8-DFE62483C883}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,30 +4894,32 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4718,8 +4933,11 @@
         <f t="shared" ref="D2:D26" si="0">C2*B2</f>
         <v>11175</v>
       </c>
+      <c r="E2" s="1">
+        <v>11269.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4733,8 +4951,11 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E3" s="1">
+        <v>11256.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4748,20 +4969,23 @@
         <f t="shared" si="0"/>
         <v>11025</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1">
+        <v>11268.3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4775,23 +4999,26 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9">
-        <f>AVERAGE(Tabela22[Comprimento])</f>
+      <c r="E5" s="1">
+        <v>11263.79</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <f>AVERAGE(Tabela22[C])</f>
         <v>149.50400000000002</v>
       </c>
-      <c r="G5" s="9">
-        <f>_xlfn.STDEV.S(Tabela22[Comprimento])</f>
-        <v>0.64322106101505605</v>
-      </c>
-      <c r="H5" s="3">
-        <f>-_xlfn.COVARIANCE.S(Tabela22[Comprimento],Tabela22[Largura])</f>
-        <v>1.4733333333333291E-2</v>
+      <c r="H5" s="12">
+        <f>_xlfn.STDEV.P(Tabela22[C])</f>
+        <v>0.63022535651939704</v>
+      </c>
+      <c r="I5" s="17">
+        <f>_xlfn.COVARIANCE.S(Tabela22[C],Tabela22[L])</f>
+        <v>-1.4733333333333291E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4805,19 +5032,25 @@
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <f>AVERAGE(Tabela22[Largura])</f>
+      <c r="E6" s="1">
+        <v>11265.5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10">
+        <f>AVERAGE(Tabela22[L])</f>
         <v>74.935999999999993</v>
       </c>
-      <c r="G6" s="10">
-        <f>_xlfn.STDEV.S(Tabela22[Largura])</f>
-        <v>0.12543258481484523</v>
+      <c r="H6" s="11">
+        <f>_xlfn.STDEV.P(Tabela22[L])</f>
+        <v>0.12289833196589778</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4831,19 +5064,26 @@
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1">
+        <v>11278.52</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <f>AVERAGE(Tabela22[Área])</f>
         <v>11203.2176</v>
       </c>
-      <c r="G7" s="8">
-        <f>_xlfn.STDEV.S(Tabela22[Área])</f>
-        <v>48.46035022572584</v>
+      <c r="H7" s="8">
+        <f>_xlfn.STDEV.P(Tabela22[Área])</f>
+        <v>47.481252323838369</v>
+      </c>
+      <c r="I7" s="17">
+        <f>I5/(H6*H5)</f>
+        <v>-0.19022130357241271</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4857,8 +5097,11 @@
         <f t="shared" si="0"/>
         <v>11212.5</v>
       </c>
+      <c r="E8" s="1">
+        <v>11279.71</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4872,15 +5115,25 @@
         <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1">
+        <v>11264.4</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
-        <f>F5*F6</f>
+      <c r="G9" s="3">
+        <f>G5*G6</f>
         <v>11203.231744000001</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3">
+        <f>AVERAGE(E2:E15)</f>
+        <v>11266.195384615383</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4894,8 +5147,11 @@
         <f t="shared" si="0"/>
         <v>11197.56</v>
       </c>
+      <c r="E10" s="1">
+        <v>11272.48</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4909,17 +5165,20 @@
         <f t="shared" si="0"/>
         <v>11145.199999999999</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1">
+        <v>11290.83</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4933,19 +5192,22 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
-      <c r="E12" s="3">
-        <f>F9/G12</f>
-        <v>2240.6463487999999</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>11203.23</v>
+      </c>
+      <c r="F12" s="14">
+        <f>H7/H12</f>
+        <v>9.4962504647676731</v>
+      </c>
+      <c r="G12" s="13">
         <v>25</v>
       </c>
-      <c r="G12" s="3">
-        <f>SQRT(F12)</f>
+      <c r="H12" s="3">
+        <f>SQRT(G12)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4959,8 +5221,14 @@
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E13" s="1">
+        <v>11267.7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4974,8 +5242,15 @@
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9">
+        <f>H6/H12</f>
+        <v>2.4579666393179555E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4989,8 +5264,14 @@
         <f t="shared" si="0"/>
         <v>11205</v>
       </c>
+      <c r="E15" s="1">
+        <v>11280.28</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5004,8 +5285,13 @@
         <f t="shared" si="0"/>
         <v>11160.1</v>
       </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16">
+        <f>H5/H12</f>
+        <v>0.1260450713038794</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5019,8 +5305,9 @@
         <f t="shared" si="0"/>
         <v>11220</v>
       </c>
+      <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5034,15 +5321,9 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5">
-        <f>G7</f>
-        <v>48.46035022572584</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5056,15 +5337,9 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <f>F7</f>
-        <v>11203.2176</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5078,15 +5353,23 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
-        <f>SQRT((G5/F5)^2 + (G6/F6)^2)*F7</f>
-        <v>51.719782009555075</v>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <f>H7</f>
+        <v>47.481252323838369</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="18">
+        <f>I9-G9</f>
+        <v>62.963640615382246</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5100,8 +5383,23 @@
         <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <f>G7</f>
+        <v>11203.2176</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="18">
+        <f>G22*2</f>
+        <v>20.269932085021935</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5115,8 +5413,23 @@
         <f t="shared" si="0"/>
         <v>11227.5</v>
       </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <f>SQRT((F14/G6)^2 + (F16/G5)^2)*G21</f>
+        <v>10.134966042510968</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>IF(I20&lt;I21,"Compativel","Não é Compativel")</f>
+        <v>Não é Compativel</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5130,8 +5443,9 @@
         <f t="shared" si="0"/>
         <v>11205.04</v>
       </c>
+      <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5145,8 +5459,9 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5160,8 +5475,9 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
+      <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5175,6 +5491,7 @@
         <f t="shared" si="0"/>
         <v>11235</v>
       </c>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
